--- a/MyProcessedDataFinal.xlsx
+++ b/MyProcessedDataFinal.xlsx
@@ -5,51 +5,84 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusmoraes/Desktop/Case Neo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusmoraes/Documents/Programming/Case Neo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3F7A5D-CF75-9C4A-8F6E-AE0E6AA3FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63BBD9-2EDA-424F-9126-EE3C903887AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23840" windowHeight="14940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28520" windowHeight="16340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Return - Assets" sheetId="1" r:id="rId1"/>
     <sheet name="Statistics - Assets" sheetId="2" r:id="rId2"/>
-    <sheet name="Cov Matrix" sheetId="3" r:id="rId3"/>
+    <sheet name="Cov Matrix - MSR" sheetId="3" r:id="rId3"/>
+    <sheet name="Cov Matriz - GMV" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'Cov Matrix'!$F$2:$F$5</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Cov Matrix - MSR'!$F$2:$F$5</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Cov Matriz - GMV'!$F$2:$F$5</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Cov Matrix'!$F$2:$F$5</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Cov Matrix'!$F$6</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Cov Matrix - MSR'!$F$2:$F$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Cov Matriz - GMV'!$F$2:$F$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Cov Matrix - MSR'!$F$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Cov Matriz - GMV'!$F$6</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Cov Matrix'!$C$10</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Cov Matrix - MSR'!$C$10</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Cov Matriz - GMV'!$C$9</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -97,9 +130,6 @@
     <t>Sharpe Ratio - Monthly</t>
   </si>
   <si>
-    <t>Weigth</t>
-  </si>
-  <si>
     <t>Tot. Weight</t>
   </si>
   <si>
@@ -113,6 +143,15 @@
   </si>
   <si>
     <t>MSR - Excel Solver Approach</t>
+  </si>
+  <si>
+    <t>Weigth (MSR)</t>
+  </si>
+  <si>
+    <t>GMV - Excel Solver Approach</t>
+  </si>
+  <si>
+    <t>Weigth (MGV)</t>
   </si>
 </sst>
 </file>
@@ -144,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -235,19 +274,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -270,6 +354,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13547,15 +13646,190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.5362770683221475</v>
+      </c>
+      <c r="C2" s="13">
+        <v>4.063261415214349E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>4.2638275646039291E-3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>7.3514139821429639E-2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.31972312409849801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>4.063261415214349E-2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.2496120565456261</v>
+      </c>
+      <c r="D3" s="13">
+        <v>7.7648561020874146E-3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>-4.8213596185412072E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.42815895243319779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4.2638275646039291E-3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>7.7648561020874146E-3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.92081441725464075</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.23155091117857821</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.10525203341421099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>7.3514139821429639E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>-4.8213596185412072E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.23155091117857821</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.871265670730896</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.14686589005409328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
+        <f>SUM(F2:F5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="array" ref="C8">MMULT(TRANSPOSE(F2:F5),'Statistics - Assets'!B2:B5)</f>
+        <v>8.0880309020427456E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="array" ref="C9">SQRT(MMULT(MMULT(TRANSPOSE(F2:F5),B2:E5),F2:F5))</f>
+        <v>0.38688847072632027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="array" ref="C10">(C8-'Statistics - Assets'!B6)/'Cov Matrix - MSR'!C9</f>
+        <v>9.9754132197633801E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C8" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2058A54-515F-894C-BF12-1D14139A8F6E}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -13568,133 +13842,133 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
+      <c r="F1" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="13">
         <v>0.5362770683221475</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>4.063261415214349E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="13">
         <v>4.2638275646039291E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="13">
         <v>7.3514139821429639E-2</v>
       </c>
-      <c r="F2">
-        <v>0.31972312409849801</v>
+      <c r="F2" s="6">
+        <v>0.19699330336677523</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <v>4.063261415214349E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>0.2496120565456261</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>7.7648561020874146E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="13">
         <v>-4.8213596185412072E-2</v>
       </c>
-      <c r="F3">
-        <v>0.42815895243319779</v>
+      <c r="F3" s="6">
+        <v>0.54948094218668331</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>4.2638275646039291E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>7.7648561020874146E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>0.92081441725464075</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="13">
         <v>0.23155091117857821</v>
       </c>
-      <c r="F4">
-        <v>0.10525203341421099</v>
+      <c r="F4" s="6">
+        <v>0.10915673837683985</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>7.3514139821429639E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>-4.8213596185412072E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>0.23155091117857821</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="13">
         <v>0.871265670730896</v>
       </c>
-      <c r="F5">
-        <v>0.14686589005409328</v>
+      <c r="F5" s="6">
+        <v>0.14436902182681341</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
+        <f>SUM(F2:F5)</f>
+        <v>1.0000000057571117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6">
-        <f>SUM(F2:F5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4">
+        <f t="array" ref="C8">MMULT(TRANSPOSE(F2:F5),'Statistics - Assets'!B2:B5)</f>
+        <v>7.8138409154776076E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
-        <f t="array" ref="C8">MMULT(TRANSPOSE(F2:F5),'Statistics - Assets'!B2:B5)</f>
-        <v>8.0880309020427456E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6">
+        <f t="array" ref="C9">SQRT(MMULT(MMULT(TRANSPOSE(F2:F5),B2:E5),F2:F5))</f>
+        <v>0.37289201241465503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7">
-        <f t="array" ref="C9">SQRT(MMULT(MMULT(TRANSPOSE(F2:F5),B2:E5),F2:F5))</f>
-        <v>0.38688847072632027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9">
-        <f t="array" ref="C10">(C8-'Statistics - Assets'!B6)/'Cov Matrix'!C9</f>
-        <v>9.9754132197633801E-3</v>
+      <c r="C10" s="8">
+        <f t="array" ref="C10">(C8-'Statistics - Assets'!B6)/'Cov Matrix - MSR'!C9</f>
+        <v>9.2667077211208617E-3</v>
       </c>
     </row>
   </sheetData>

--- a/MyProcessedDataFinal.xlsx
+++ b/MyProcessedDataFinal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusmoraes/Documents/Programming/Case Neo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusmoraes/Downloads/Case Neo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63BBD9-2EDA-424F-9126-EE3C903887AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569AE060-26B3-4647-849A-A9EE2593328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28520" windowHeight="16340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,13 +145,13 @@
     <t>MSR - Excel Solver Approach</t>
   </si>
   <si>
-    <t>Weigth (MSR)</t>
-  </si>
-  <si>
     <t>GMV - Excel Solver Approach</t>
   </si>
   <si>
-    <t>Weigth (MGV)</t>
+    <t>Weight (MGV)</t>
+  </si>
+  <si>
+    <t>Weight (MSR)</t>
   </si>
 </sst>
 </file>
@@ -346,6 +346,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -354,21 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13649,7 +13649,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13660,7 +13660,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -13673,8 +13673,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>15</v>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -13682,16 +13682,16 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>0.5362770683221475</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>4.063261415214349E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>4.2638275646039291E-3</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>7.3514139821429639E-2</v>
       </c>
       <c r="F2" s="6">
@@ -13702,16 +13702,16 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>4.063261415214349E-2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.2496120565456261</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>7.7648561020874146E-3</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>-4.8213596185412072E-2</v>
       </c>
       <c r="F3" s="6">
@@ -13722,16 +13722,16 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>4.2638275646039291E-3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>7.7648561020874146E-3</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.92081441725464075</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.23155091117857821</v>
       </c>
       <c r="F4" s="6">
@@ -13739,19 +13739,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>7.3514139821429639E-2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>-4.8213596185412072E-2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.23155091117857821</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.871265670730896</v>
       </c>
       <c r="F5" s="6">
@@ -13759,20 +13759,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12">
         <f>SUM(F2:F5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -13784,7 +13784,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -13794,7 +13794,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -13819,8 +13819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2058A54-515F-894C-BF12-1D14139A8F6E}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13829,7 +13829,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -13842,24 +13842,24 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>17</v>
+      <c r="F1" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>0.5362770683221475</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>4.063261415214349E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>4.2638275646039291E-3</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>7.3514139821429639E-2</v>
       </c>
       <c r="F2" s="6">
@@ -13870,16 +13870,16 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>4.063261415214349E-2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.2496120565456261</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>7.7648561020874146E-3</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>-4.8213596185412072E-2</v>
       </c>
       <c r="F3" s="6">
@@ -13890,16 +13890,16 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>4.2638275646039291E-3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>7.7648561020874146E-3</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.92081441725464075</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.23155091117857821</v>
       </c>
       <c r="F4" s="6">
@@ -13907,19 +13907,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>7.3514139821429639E-2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>-4.8213596185412072E-2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.23155091117857821</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.871265670730896</v>
       </c>
       <c r="F5" s="6">
@@ -13927,21 +13927,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12">
         <f>SUM(F2:F5)</f>
         <v>1.0000000057571117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
+      <c r="A8" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -13952,7 +13952,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -13962,7 +13962,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>

--- a/MyProcessedDataFinal.xlsx
+++ b/MyProcessedDataFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusmoraes/Downloads/Case Neo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569AE060-26B3-4647-849A-A9EE2593328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B42A0-5694-C048-91C6-4253BFC5A77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28520" windowHeight="16340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,10 +148,10 @@
     <t>GMV - Excel Solver Approach</t>
   </si>
   <si>
-    <t>Weight (MGV)</t>
+    <t>Weight (MSR)</t>
   </si>
   <si>
-    <t>Weight (MSR)</t>
+    <t>Weight (GMV)</t>
   </si>
 </sst>
 </file>
@@ -13674,7 +13674,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -13820,7 +13820,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13843,7 +13843,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/MyProcessedDataFinal.xlsx
+++ b/MyProcessedDataFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusmoraes/Downloads/Case Neo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B42A0-5694-C048-91C6-4253BFC5A77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9414380-8B0F-4B41-9CC3-96A15E0CE207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28520" windowHeight="16340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28520" windowHeight="16340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Return - Assets" sheetId="1" r:id="rId1"/>
@@ -13648,13 +13648,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
@@ -13819,8 +13820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2058A54-515F-894C-BF12-1D14139A8F6E}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
